--- a/02 系统测试/05 日报考勤/考勤表.xlsx
+++ b/02 系统测试/05 日报考勤/考勤表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\woniuboss2.5_yang\02 系统测试\05 日报考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C548AAB-F938-4F45-B5A8-42C579A68F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCBA7F-CA5D-4506-A25C-9D1104A05DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="1032" windowWidth="16812" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>考勤表</t>
   </si>
@@ -111,15 +111,15 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +404,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,162 +414,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43957</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43958</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43959</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43960</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43961</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43962</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43963</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43964</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43965</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43966</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43967</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43968</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43969</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43970</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43971</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43972</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43973</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43974</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43975</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>43976</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>43977</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43978</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>43979</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/02 系统测试/05 日报考勤/考勤表.xlsx
+++ b/02 系统测试/05 日报考勤/考勤表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc281\Desktop\woniuboss2.5_git\woniuboss2.5_yang\02 系统测试\05 日报考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCBA7F-CA5D-4506-A25C-9D1104A05DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38782F66-FA77-4811-8080-835A253ED729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="1032" windowWidth="16812" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>考勤表</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>√</t>
+  </si>
+  <si>
+    <t>周日</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,13 +466,17 @@
       <c r="A7" s="2">
         <v>43961</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43962</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
